--- a/【长沙】-张伟利进度表.xlsx
+++ b/【长沙】-张伟利进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>日期</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>写js内容</t>
+  </si>
+  <si>
+    <t>完成主页内容</t>
+  </si>
+  <si>
+    <t>水平有待提高</t>
   </si>
   <si>
     <t>第三天</t>
@@ -78,12 +84,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,43 +108,51 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -154,27 +168,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,36 +189,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +205,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -265,6 +264,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -283,6 +312,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -337,42 +408,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -380,42 +415,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,17 +452,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,15 +491,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -503,30 +502,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,153 +525,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,7 +1064,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1125,17 +1124,23 @@
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.791666666666667</v>
+      </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1144,10 +1149,10 @@
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1156,10 +1161,10 @@
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
